--- a/server/review.xlsx
+++ b/server/review.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,6 +2308,246 @@
         <v>602</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>62</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>复习</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>復習</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ふくしゅう</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>復習(ふくしゅう)</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>10</v>
+      </c>
+      <c r="L40" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>505</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>集体</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>集団</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>しゅうだん</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>集団(しゅうだん)</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>29</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>游泳</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>swimming</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>水泳</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>すいえい</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>水泳(すいえい)</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>10</v>
+      </c>
+      <c r="L42" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>235</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>使用中</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>in use</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>使用中</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>しようちゅう</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>使用中(しようちゅう)</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10</v>
+      </c>
+      <c r="L43" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>465</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>邮购</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>mail order</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>通信販売</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>つうしんはんばい</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>通信販売(つうしんはんばい)</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10</v>
+      </c>
+      <c r="L44" t="n">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/server/review.xlsx
+++ b/server/review.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,6 +2548,342 @@
         <v>465</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>19</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>さいきん</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>最近(さいきん)</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>10</v>
+      </c>
+      <c r="L45" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>304</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>响应；接受</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>respond</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>応じる</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>おうじる</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>応じる(おうじる)</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>10</v>
+      </c>
+      <c r="L46" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>293</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>玩笑</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>joke</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>冗談</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>じょうだん</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>冗談(じょうだん)</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>10</v>
+      </c>
+      <c r="L47" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>437</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>renewal</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>こうしん</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>更新(こうしん)</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>309</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>通过（议案）</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>approval</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>可決</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>かけつ</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>可決(かけつ)</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>10</v>
+      </c>
+      <c r="L49" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>162</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>情况、方便</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>convenience</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>都合</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>つごう</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>都合(つごう)</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>10</v>
+      </c>
+      <c r="L50" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>498</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>运费</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>fare</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>運賃</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>うんちん</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>運賃(うんちん)</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10</v>
+      </c>
+      <c r="L51" t="n">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
